--- a/Tables/Table3_T1EandPower_withLD.xlsx
+++ b/Tables/Table3_T1EandPower_withLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C03A1D0-4081-45F1-8FB2-23B26675AD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02775D7E-3983-4142-ACE3-6F4CF19910AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="31">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7382,8 +7382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00581F9-66D8-45F1-B5EC-CD140A76E77B}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7551,11 +7551,26 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>4714.6000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2636.6</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6699745854735587</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3818181818181796</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -7680,11 +7695,26 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>4715.8</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13" si="1">AVERAGE(D8:D12)</f>
+        <v>2636.8</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13" si="2">AVERAGE(E8:E12)</f>
+        <v>0.6699745854735587</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13" si="3">AVERAGE(F8:F12)</f>
+        <v>1.3818181818181796</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ref="G13" si="4">AVERAGE(G8:G12)</f>
+        <v>15.2</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -7809,11 +7839,26 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>11162.8</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19" si="5">AVERAGE(D14:D18)</f>
+        <v>7492.6</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19" si="6">AVERAGE(E14:E18)</f>
+        <v>3.9512672573216583</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19" si="7">AVERAGE(F14:F18)</f>
+        <v>0.29090909090909101</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ref="G19" si="8">AVERAGE(G14:G18)</f>
+        <v>3.2</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -7943,11 +7988,26 @@
       <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>6409.4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25" si="9">AVERAGE(D20:D24)</f>
+        <v>3859.8</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ref="E25" si="10">AVERAGE(E20:E24)</f>
+        <v>1.3659480751338209</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ref="F25" si="11">AVERAGE(F20:F24)</f>
+        <v>1.5454545454545419</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ref="G25" si="12">AVERAGE(G20:G24)</f>
+        <v>17</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -8080,11 +8140,26 @@
       <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1">
+        <f>AVERAGE(C26:C30)</f>
+        <v>6298.6</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31" si="13">AVERAGE(D26:D30)</f>
+        <v>3738.2</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ref="E31" si="14">AVERAGE(E26:E30)</f>
+        <v>4.4730845983278478</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31" si="15">AVERAGE(F26:F30)</f>
+        <v>2.0363636363636357</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ref="G31" si="16">AVERAGE(G26:G30)</f>
+        <v>22.4</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="2"/>
@@ -8211,11 +8286,26 @@
       <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>12552.4</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37" si="17">AVERAGE(D32:D36)</f>
+        <v>5580.8</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37" si="18">AVERAGE(E32:E36)</f>
+        <v>6014.8638713076343</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ref="F37" si="19">AVERAGE(F32:F36)</f>
+        <v>480.41818181818218</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ref="G37" si="20">AVERAGE(G32:G36)</f>
+        <v>5284.6</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="2"/>
     </row>
@@ -11229,8 +11319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C28" activeCellId="1" sqref="A32:XFD37 C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11398,11 +11488,26 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>416.6</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>101</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>0.32242211794515463</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>1.0909090909090911</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>12</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -11527,11 +11632,26 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>417.2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
+        <v>100.8</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.29875265635159087</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>1.072727272727273</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>11.8</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -11656,11 +11776,26 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>507.4</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>135.6</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>6.923915403749939E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>1.0909090909090897</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+        <v>12</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -11785,11 +11920,26 @@
       <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>479</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
+        <v>126.6</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
+        <v>0.32588282077193742</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
+        <v>1.2363636363636359</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
+        <v>13.6</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -11914,75 +12064,50 @@
       <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
+      <c r="C31" s="1">
+        <f>AVERAGE(C26:C30)</f>
+        <v>457.2</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
+        <v>121.6</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="16"/>
+        <v>0.26616907054472694</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="16"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="16"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -17911,8 +18036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11225FA-001A-452B-B018-0BA76F437E3E}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" activeCellId="1" sqref="A32:XFD37 C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18080,11 +18205,26 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>2504.1999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1180.8</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1162217057977154</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94545454545454466</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -18209,11 +18349,26 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>2501.4</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1181.2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1162217057977154</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94545454545454466</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -18338,11 +18493,26 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>4880.2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2824</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21969079311877343</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98181818181818059</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>10.8</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -18467,11 +18637,26 @@
       <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>2820.6</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>1337.2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8336128208154242E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.94545454545454499</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>10.4</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -18596,75 +18781,50 @@
       <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
+      <c r="C31" s="1">
+        <f>AVERAGE(C26:C30)</f>
+        <v>2830.6</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>1374</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.83691426956278403</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.92727272727272614</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="4"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -18689,8 +18849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3A14D-1289-4BD6-9B05-2DAAD3D257CE}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" activeCellId="1" sqref="A32:XFD37 C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18744,19 +18904,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.60199999999999998</v>
+        <v>4809</v>
       </c>
       <c r="D2">
-        <v>0.49099999999999999</v>
+        <v>2524</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.0909090909090899</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G2" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -18767,19 +18927,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.60499999999999998</v>
+        <v>4745</v>
       </c>
       <c r="D3" s="3">
-        <v>0.49199999999999999</v>
+        <v>2583</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2.0648142624376402</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>1.8181818181818199</v>
       </c>
       <c r="G3" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -18790,19 +18950,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.59799999999999998</v>
+        <v>5590</v>
       </c>
       <c r="D4" s="3">
-        <v>0.48399999999999999</v>
+        <v>3409</v>
       </c>
       <c r="E4">
-        <v>5.0004658095770503E-2</v>
+        <v>0.34619577018749698</v>
       </c>
       <c r="F4">
-        <v>0.81818181818181801</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G4" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -18813,19 +18973,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.622</v>
+        <v>4114</v>
       </c>
       <c r="D5" s="3">
-        <v>0.49099999999999999</v>
+        <v>2186</v>
       </c>
       <c r="E5">
-        <v>0.34619577018749698</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F5">
-        <v>1.36363636363636</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G5" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -18836,19 +18996,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.60099999999999998</v>
+        <v>4315</v>
       </c>
       <c r="D6" s="3">
-        <v>0.48</v>
+        <v>2481</v>
       </c>
       <c r="E6">
-        <v>0.89297359959113698</v>
+        <v>0.34619577018749698</v>
       </c>
       <c r="F6">
-        <v>1.5454545454545501</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G6" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -18860,23 +19020,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.60559999999999992</v>
+        <v>4714.6000000000004</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0.48760000000000003</v>
+        <v>2636.6</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.25783480557488087</v>
+        <v>0.6699745854735587</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.1636363636363636</v>
+        <v>1.3818181818181796</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>12.8</v>
+        <v>15.2</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -18888,19 +19048,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.60199999999999998</v>
+        <v>4808</v>
       </c>
       <c r="D8">
-        <v>0.49099999999999999</v>
+        <v>2526</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.0909090909090899</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G8" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -18911,19 +19071,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.60499999999999998</v>
+        <v>4743</v>
       </c>
       <c r="D9" s="3">
-        <v>0.49199999999999999</v>
+        <v>2587</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.0648142624376402</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>1.8181818181818199</v>
       </c>
       <c r="G9" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -18934,19 +19094,19 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.59699999999999998</v>
+        <v>5596</v>
       </c>
       <c r="D10" s="3">
-        <v>0.48399999999999999</v>
+        <v>3405</v>
       </c>
       <c r="E10">
-        <v>5.0004658095770503E-2</v>
+        <v>0.34619577018749698</v>
       </c>
       <c r="F10">
-        <v>0.81818181818181801</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G10" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -18957,19 +19117,19 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.622</v>
+        <v>4120</v>
       </c>
       <c r="D11">
-        <v>0.49099999999999999</v>
+        <v>2184</v>
       </c>
       <c r="E11">
-        <v>0.34619577018749698</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F11">
-        <v>1.36363636363636</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G11" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -18980,19 +19140,19 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.60099999999999998</v>
+        <v>4312</v>
       </c>
       <c r="D12" s="3">
-        <v>0.48099999999999998</v>
+        <v>2482</v>
       </c>
       <c r="E12">
-        <v>0.89297359959113698</v>
+        <v>0.34619577018749698</v>
       </c>
       <c r="F12">
-        <v>1.5454545454545501</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G12" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -19004,23 +19164,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>0.60539999999999994</v>
+        <v>4715.8</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0.48780000000000001</v>
+        <v>2636.8</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>0.25783480557488087</v>
+        <v>0.6699745854735587</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>1.1636363636363636</v>
+        <v>1.3818181818181796</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>15.2</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -19032,19 +19192,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.79300000000000004</v>
+        <v>10285</v>
       </c>
       <c r="D14">
-        <v>0.71699999999999997</v>
+        <v>7008</v>
       </c>
       <c r="E14">
-        <v>6.7503772916977196</v>
+        <v>9.0913748809588792</v>
       </c>
       <c r="F14">
-        <v>9.0909090909090898E-2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -19055,19 +19215,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.78600000000000003</v>
+        <v>11653</v>
       </c>
       <c r="D15" s="3">
-        <v>0.70899999999999996</v>
+        <v>7884</v>
       </c>
       <c r="E15">
-        <v>9.0913748809588792</v>
+        <v>4.9233750314859099</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.18181818181818199</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -19078,19 +19238,19 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.78300000000000003</v>
+        <v>12276</v>
       </c>
       <c r="D16" s="3">
-        <v>0.71399999999999997</v>
+        <v>8566</v>
       </c>
       <c r="E16">
-        <v>3.5002282403137599</v>
+        <v>2.40016768754221</v>
       </c>
       <c r="F16">
-        <v>0.27272727272727298</v>
+        <v>0.36363636363636398</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -19101,19 +19261,19 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.81</v>
+        <v>10444</v>
       </c>
       <c r="D17">
-        <v>0.73599999999999999</v>
+        <v>6721</v>
       </c>
       <c r="E17">
-        <v>6.7503772916977196</v>
+        <v>2.40016768754221</v>
       </c>
       <c r="F17">
-        <v>9.0909090909090898E-2</v>
+        <v>0.36363636363636398</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -19124,19 +19284,19 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0.78</v>
+        <v>11156</v>
       </c>
       <c r="D18" s="3">
-        <v>0.70299999999999996</v>
+        <v>7284</v>
       </c>
       <c r="E18">
-        <v>1.5626164502245199</v>
+        <v>0.94125099907908005</v>
       </c>
       <c r="F18">
-        <v>0.45454545454545497</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -19148,23 +19308,23 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>0.79039999999999999</v>
+        <v>11162.8</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>0.71579999999999988</v>
+        <v>7492.6</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>5.5309948309785195</v>
+        <v>3.9512672573216583</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>0.18181818181818193</v>
+        <v>0.29090909090909101</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -19176,19 +19336,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.68300000000000005</v>
+        <v>6301</v>
       </c>
       <c r="D20">
-        <v>0.57799999999999996</v>
+        <v>3759</v>
       </c>
       <c r="E20">
-        <v>0.34619577018749698</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F20">
-        <v>1.36363636363636</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G20" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -19198,6 +19358,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>6712</v>
+      </c>
+      <c r="D21">
+        <v>3918</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -19207,19 +19382,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.67600000000000005</v>
+        <v>7389</v>
       </c>
       <c r="D22">
-        <v>0.56699999999999995</v>
+        <v>4730</v>
       </c>
       <c r="E22">
-        <v>0.16001863281704901</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F22">
-        <v>1.27272727272727</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -19230,19 +19405,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.69499999999999995</v>
+        <v>5704</v>
       </c>
       <c r="D23">
-        <v>0.58199999999999996</v>
+        <v>3213</v>
       </c>
       <c r="E23">
-        <v>0.16001863281704901</v>
+        <v>5.2982103563712899</v>
       </c>
       <c r="F23">
-        <v>1.27272727272727</v>
+        <v>2.3636363636363602</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -19253,19 +19428,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0.67</v>
+        <v>5941</v>
       </c>
       <c r="D24">
-        <v>0.56200000000000006</v>
+        <v>3679</v>
       </c>
       <c r="E24">
-        <v>0.21054494808576399</v>
+        <v>0.34619577018749698</v>
       </c>
       <c r="F24">
-        <v>0.72727272727272696</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -19277,23 +19452,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>0.68099999999999994</v>
+        <v>6409.4</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0.57224999999999993</v>
+        <v>3859.8</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>0.21919449597683974</v>
+        <v>1.3659480751338209</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>1.1590909090909067</v>
+        <v>1.5454545454545419</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>12.75</v>
+        <v>17</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -19305,19 +19480,19 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0.66900000000000004</v>
+        <v>6392</v>
       </c>
       <c r="D26">
-        <v>0.57099999999999995</v>
+        <v>3753</v>
       </c>
       <c r="E26">
-        <v>5.9221007910109904</v>
+        <v>2.5316273268488998</v>
       </c>
       <c r="F26">
-        <v>2.4545454545454501</v>
+        <v>1.9090909090909101</v>
       </c>
       <c r="G26">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -19328,19 +19503,19 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>0.67100000000000004</v>
+        <v>6352</v>
       </c>
       <c r="D27" s="3">
-        <v>0.56999999999999995</v>
+        <v>3536</v>
       </c>
       <c r="E27">
-        <v>4.1671324849230203E-2</v>
+        <v>13.0237450229519</v>
       </c>
       <c r="F27">
-        <v>1.1818181818181801</v>
+        <v>3.3636363636363602</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -19351,19 +19526,19 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.66500000000000004</v>
+        <v>7288</v>
       </c>
       <c r="D28">
-        <v>0.56299999999999994</v>
+        <v>4637</v>
       </c>
       <c r="E28">
-        <v>1.6335615906585299</v>
+        <v>2.0648142624376402</v>
       </c>
       <c r="F28">
-        <v>1.72727272727273</v>
+        <v>1.8181818181818199</v>
       </c>
       <c r="G28">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -19374,19 +19549,19 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>0.69199999999999995</v>
+        <v>5637</v>
       </c>
       <c r="D29">
-        <v>0.58199999999999996</v>
+        <v>3189</v>
       </c>
       <c r="E29">
-        <v>4.1149565269473003</v>
+        <v>4.6952317213050296</v>
       </c>
       <c r="F29">
-        <v>2.1818181818181799</v>
+        <v>2.2727272727272698</v>
       </c>
       <c r="G29">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -19397,19 +19572,19 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>0.66500000000000004</v>
+        <v>5824</v>
       </c>
       <c r="D30">
-        <v>0.55500000000000005</v>
+        <v>3576</v>
       </c>
       <c r="E30">
-        <v>0.50004192247137602</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F30">
-        <v>0.63636363636363602</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -19421,175 +19596,48 @@
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>0.6724</v>
+        <v>6298.6</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>0.56820000000000004</v>
+        <v>3738.2</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>2.4424664311874849</v>
+        <v>4.4730845983278478</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>1.6363636363636354</v>
+        <v>2.0363636363636357</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="D32">
-        <v>0.09</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D34">
-        <v>2E-3</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D35">
-        <v>1E-3</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D36">
-        <v>1E-3</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1">
-        <f>AVERAGE(C32:C36)</f>
-        <v>4.2800000000000005E-2</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
